--- a/fuction_ensemble_1/redes-ensemble-s/mse_sup/1000_model_2_2_7.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/mse_sup/1000_model_2_2_7.xlsx
@@ -522,7 +522,7 @@
         <v>2.3202158622161</v>
       </c>
       <c r="D6" t="n">
-        <v>2.805263042449951</v>
+        <v>2.805262804031372</v>
       </c>
     </row>
     <row r="7">
@@ -620,7 +620,7 @@
         <v>1.385995091465572</v>
       </c>
       <c r="D13" t="n">
-        <v>1.179332375526428</v>
+        <v>1.179332613945007</v>
       </c>
     </row>
     <row r="14">
@@ -634,7 +634,7 @@
         <v>1.430324041922637</v>
       </c>
       <c r="D14" t="n">
-        <v>1.161461114883423</v>
+        <v>1.161460757255554</v>
       </c>
     </row>
     <row r="15">
@@ -690,7 +690,7 @@
         <v>1.841427758198229</v>
       </c>
       <c r="D18" t="n">
-        <v>1.827194213867188</v>
+        <v>1.827194094657898</v>
       </c>
     </row>
     <row r="19">
@@ -830,7 +830,7 @@
         <v>2.943245152681395</v>
       </c>
       <c r="D28" t="n">
-        <v>2.617900848388672</v>
+        <v>2.617901086807251</v>
       </c>
     </row>
     <row r="29">
@@ -1012,7 +1012,7 @@
         <v>1.252379902044768</v>
       </c>
       <c r="D41" t="n">
-        <v>1.903685212135315</v>
+        <v>1.903685092926025</v>
       </c>
     </row>
     <row r="42">
@@ -1152,7 +1152,7 @@
         <v>1.626475781118616</v>
       </c>
       <c r="D51" t="n">
-        <v>2.053194046020508</v>
+        <v>2.053194284439087</v>
       </c>
     </row>
     <row r="52">
@@ -1376,7 +1376,7 @@
         <v>2.75413347852185</v>
       </c>
       <c r="D67" t="n">
-        <v>3.603446245193481</v>
+        <v>3.603446006774902</v>
       </c>
     </row>
     <row r="68">
@@ -1446,7 +1446,7 @@
         <v>1.244630244393571</v>
       </c>
       <c r="D72" t="n">
-        <v>2.183195352554321</v>
+        <v>2.1831955909729</v>
       </c>
     </row>
     <row r="73">
@@ -1488,7 +1488,7 @@
         <v>0.8590397881945164</v>
       </c>
       <c r="D75" t="n">
-        <v>1.410215616226196</v>
+        <v>1.410215854644775</v>
       </c>
     </row>
     <row r="76">
@@ -1530,7 +1530,7 @@
         <v>0.8848120867518172</v>
       </c>
       <c r="D78" t="n">
-        <v>1.131926894187927</v>
+        <v>1.131927132606506</v>
       </c>
     </row>
     <row r="79">
@@ -1586,7 +1586,7 @@
         <v>1.295915803027409</v>
       </c>
       <c r="D82" t="n">
-        <v>1.791362524032593</v>
+        <v>1.791362643241882</v>
       </c>
     </row>
     <row r="83">
@@ -1628,7 +1628,7 @@
         <v>1.73135261170622</v>
       </c>
       <c r="D85" t="n">
-        <v>2.41170859336853</v>
+        <v>2.411708354949951</v>
       </c>
     </row>
     <row r="86">
@@ -1684,7 +1684,7 @@
         <v>2.249250770207017</v>
       </c>
       <c r="D89" t="n">
-        <v>2.634877920150757</v>
+        <v>2.634877681732178</v>
       </c>
     </row>
     <row r="90">
@@ -1754,7 +1754,7 @@
         <v>2.335053691013366</v>
       </c>
       <c r="D94" t="n">
-        <v>2.504059076309204</v>
+        <v>2.504059314727783</v>
       </c>
     </row>
     <row r="95">
@@ -1796,7 +1796,7 @@
         <v>2.11445631331817</v>
       </c>
       <c r="D97" t="n">
-        <v>2.388708353042603</v>
+        <v>2.388708591461182</v>
       </c>
     </row>
     <row r="98">
@@ -1810,7 +1810,7 @@
         <v>2.919828224085738</v>
       </c>
       <c r="D98" t="n">
-        <v>3.822426319122314</v>
+        <v>3.822426080703735</v>
       </c>
     </row>
     <row r="99">
@@ -1950,7 +1950,7 @@
         <v>0.7669878282850764</v>
       </c>
       <c r="D108" t="n">
-        <v>1.234335541725159</v>
+        <v>1.23433530330658</v>
       </c>
     </row>
     <row r="109">
@@ -1964,7 +1964,7 @@
         <v>0.7776241374304858</v>
       </c>
       <c r="D109" t="n">
-        <v>1.138036727905273</v>
+        <v>1.138036489486694</v>
       </c>
     </row>
     <row r="110">
@@ -1992,7 +1992,7 @@
         <v>0.8943676588433951</v>
       </c>
       <c r="D111" t="n">
-        <v>1.181500434875488</v>
+        <v>1.181500554084778</v>
       </c>
     </row>
     <row r="112">
@@ -2062,7 +2062,7 @@
         <v>1.519378025487666</v>
       </c>
       <c r="D116" t="n">
-        <v>2.229918241500854</v>
+        <v>2.229918479919434</v>
       </c>
     </row>
     <row r="117">
@@ -2244,7 +2244,7 @@
         <v>2.051597314453902</v>
       </c>
       <c r="D129" t="n">
-        <v>2.369410991668701</v>
+        <v>2.369410753250122</v>
       </c>
     </row>
     <row r="130">
@@ -2258,7 +2258,7 @@
         <v>2.954290469142716</v>
       </c>
       <c r="D130" t="n">
-        <v>3.824701070785522</v>
+        <v>3.824701309204102</v>
       </c>
     </row>
     <row r="131">
@@ -2272,7 +2272,7 @@
         <v>2.72573672471456</v>
       </c>
       <c r="D131" t="n">
-        <v>3.604597330093384</v>
+        <v>3.604597091674805</v>
       </c>
     </row>
     <row r="132">
@@ -2300,7 +2300,7 @@
         <v>2.074196806147871</v>
       </c>
       <c r="D133" t="n">
-        <v>3.079573154449463</v>
+        <v>3.079572916030884</v>
       </c>
     </row>
     <row r="134">
@@ -2314,7 +2314,7 @@
         <v>1.746307153237991</v>
       </c>
       <c r="D134" t="n">
-        <v>2.782655477523804</v>
+        <v>2.782655239105225</v>
       </c>
     </row>
     <row r="135">
@@ -2342,7 +2342,7 @@
         <v>1.216233490586281</v>
       </c>
       <c r="D136" t="n">
-        <v>2.165468692779541</v>
+        <v>2.16546893119812</v>
       </c>
     </row>
     <row r="137">
@@ -2384,7 +2384,7 @@
         <v>0.8306430343872264</v>
       </c>
       <c r="D139" t="n">
-        <v>1.38786780834198</v>
+        <v>1.387867569923401</v>
       </c>
     </row>
     <row r="140">
@@ -2440,7 +2440,7 @@
         <v>0.9288299039003727</v>
       </c>
       <c r="D143" t="n">
-        <v>1.169726729393005</v>
+        <v>1.169726371765137</v>
       </c>
     </row>
     <row r="144">
@@ -2482,7 +2482,7 @@
         <v>1.267519049220119</v>
       </c>
       <c r="D146" t="n">
-        <v>1.760948777198792</v>
+        <v>1.760948896408081</v>
       </c>
     </row>
     <row r="147">
@@ -2608,7 +2608,7 @@
         <v>2.352116953170927</v>
       </c>
       <c r="D155" t="n">
-        <v>2.567208051681519</v>
+        <v>2.567207813262939</v>
       </c>
     </row>
     <row r="156">
@@ -2804,7 +2804,7 @@
         <v>1.139522220375473</v>
       </c>
       <c r="D169" t="n">
-        <v>1.865781188011169</v>
+        <v>1.865781307220459</v>
       </c>
     </row>
     <row r="170">
@@ -2818,7 +2818,7 @@
         <v>1.012325463520111</v>
       </c>
       <c r="D170" t="n">
-        <v>1.601438164710999</v>
+        <v>1.601438283920288</v>
       </c>
     </row>
     <row r="171">
@@ -2874,7 +2874,7 @@
         <v>0.9627743510285103</v>
       </c>
       <c r="D174" t="n">
-        <v>1.099960684776306</v>
+        <v>1.099960446357727</v>
       </c>
     </row>
     <row r="175">
@@ -2902,7 +2902,7 @@
         <v>1.13071753457505</v>
       </c>
       <c r="D176" t="n">
-        <v>1.3031245470047</v>
+        <v>1.303124189376831</v>
       </c>
     </row>
     <row r="177">
@@ -2916,7 +2916,7 @@
         <v>1.244954023830588</v>
       </c>
       <c r="D177" t="n">
-        <v>1.509122252464294</v>
+        <v>1.509122490882874</v>
       </c>
     </row>
     <row r="178">
@@ -2930,7 +2930,7 @@
         <v>1.373878067304102</v>
       </c>
       <c r="D178" t="n">
-        <v>1.750938653945923</v>
+        <v>1.750938534736633</v>
       </c>
     </row>
     <row r="179">
@@ -2944,7 +2944,7 @@
         <v>1.513618099449321</v>
       </c>
       <c r="D179" t="n">
-        <v>1.992894649505615</v>
+        <v>1.992894530296326</v>
       </c>
     </row>
     <row r="180">
@@ -2972,7 +2972,7 @@
         <v>1.809314875982913</v>
       </c>
       <c r="D181" t="n">
-        <v>2.367505073547363</v>
+        <v>2.367504835128784</v>
       </c>
     </row>
     <row r="182">
@@ -3098,7 +3098,7 @@
         <v>2.413015955290059</v>
       </c>
       <c r="D190" t="n">
-        <v>2.455511569976807</v>
+        <v>2.455511808395386</v>
       </c>
     </row>
     <row r="191">
@@ -3252,7 +3252,7 @@
         <v>1.296542134940076</v>
       </c>
       <c r="D201" t="n">
-        <v>1.864470720291138</v>
+        <v>1.864470839500427</v>
       </c>
     </row>
     <row r="202">
@@ -3308,7 +3308,7 @@
         <v>1.075465315136049</v>
       </c>
       <c r="D205" t="n">
-        <v>1.118672251701355</v>
+        <v>1.118672490119934</v>
       </c>
     </row>
     <row r="206">
@@ -3322,7 +3322,7 @@
         <v>1.119794265593114</v>
       </c>
       <c r="D206" t="n">
-        <v>1.098165273666382</v>
+        <v>1.098165512084961</v>
       </c>
     </row>
     <row r="207">
@@ -3364,7 +3364,7 @@
         <v>1.401973938395191</v>
       </c>
       <c r="D209" t="n">
-        <v>1.505753040313721</v>
+        <v>1.505752801895142</v>
       </c>
     </row>
     <row r="210">
@@ -3574,7 +3574,7 @@
         <v>2.422580594116612</v>
       </c>
       <c r="D224" t="n">
-        <v>2.376327037811279</v>
+        <v>2.376327276229858</v>
       </c>
     </row>
     <row r="225">
@@ -3588,7 +3588,7 @@
         <v>2.349438492159465</v>
       </c>
       <c r="D225" t="n">
-        <v>2.339110612869263</v>
+        <v>2.339110851287842</v>
       </c>
     </row>
     <row r="226">
@@ -3630,7 +3630,7 @@
         <v>2.866494599745228</v>
       </c>
       <c r="D228" t="n">
-        <v>3.373273372650146</v>
+        <v>3.373273611068726</v>
       </c>
     </row>
     <row r="229">
@@ -3714,7 +3714,7 @@
         <v>1.358546784276779</v>
       </c>
       <c r="D234" t="n">
-        <v>1.605821967124939</v>
+        <v>1.605821847915649</v>
       </c>
     </row>
     <row r="235">
@@ -3728,7 +3728,7 @@
         <v>1.283223373227877</v>
       </c>
       <c r="D235" t="n">
-        <v>1.385655045509338</v>
+        <v>1.385655283927917</v>
       </c>
     </row>
     <row r="236">
@@ -3756,7 +3756,7 @@
         <v>1.264666721328114</v>
       </c>
       <c r="D237" t="n">
-        <v>1.125276327133179</v>
+        <v>1.1252760887146</v>
       </c>
     </row>
     <row r="238">
@@ -3826,7 +3826,7 @@
         <v>1.72009938806077</v>
       </c>
       <c r="D242" t="n">
-        <v>1.752305269241333</v>
+        <v>1.752305388450623</v>
       </c>
     </row>
     <row r="243">
@@ -3882,7 +3882,7 @@
         <v>2.30238047326656</v>
       </c>
       <c r="D246" t="n">
-        <v>2.480444669723511</v>
+        <v>2.48044490814209</v>
       </c>
     </row>
     <row r="247">
@@ -3896,7 +3896,7 @@
         <v>2.441583964650647</v>
       </c>
       <c r="D247" t="n">
-        <v>2.54800820350647</v>
+        <v>2.548007965087891</v>
       </c>
     </row>
     <row r="248">
@@ -3924,7 +3924,7 @@
         <v>2.673434355240378</v>
       </c>
       <c r="D249" t="n">
-        <v>2.587881326675415</v>
+        <v>2.587881088256836</v>
       </c>
     </row>
     <row r="250">
@@ -3966,7 +3966,7 @@
         <v>2.821916782543936</v>
       </c>
       <c r="D252" t="n">
-        <v>2.527249813079834</v>
+        <v>2.527249574661255</v>
       </c>
     </row>
     <row r="253">
@@ -4022,7 +4022,7 @@
         <v>2.611782000308677</v>
       </c>
       <c r="D256" t="n">
-        <v>2.384338140487671</v>
+        <v>2.384337902069092</v>
       </c>
     </row>
     <row r="257">
@@ -4064,7 +4064,7 @@
         <v>3.382524225600443</v>
       </c>
       <c r="D259" t="n">
-        <v>3.647402286529541</v>
+        <v>3.64740252494812</v>
       </c>
     </row>
     <row r="260">
@@ -4078,7 +4078,7 @@
         <v>3.07070176179046</v>
       </c>
       <c r="D260" t="n">
-        <v>3.393139362335205</v>
+        <v>3.393139600753784</v>
       </c>
     </row>
     <row r="261">
@@ -4120,7 +4120,7 @@
         <v>2.112489576932524</v>
       </c>
       <c r="D263" t="n">
-        <v>2.494337320327759</v>
+        <v>2.494337558746338</v>
       </c>
     </row>
     <row r="264">
@@ -4232,7 +4232,7 @@
         <v>1.585617404786256</v>
       </c>
       <c r="D271" t="n">
-        <v>1.184120893478394</v>
+        <v>1.184121131896973</v>
       </c>
     </row>
     <row r="272">
@@ -4260,7 +4260,7 @@
         <v>1.795382506632489</v>
       </c>
       <c r="D273" t="n">
-        <v>1.529305696487427</v>
+        <v>1.529305815696716</v>
       </c>
     </row>
     <row r="274">
@@ -4288,7 +4288,7 @@
         <v>2.064046582251221</v>
       </c>
       <c r="D275" t="n">
-        <v>2.011886596679688</v>
+        <v>2.011886358261108</v>
       </c>
     </row>
     <row r="276">
@@ -4456,7 +4456,7 @@
         <v>2.894783351845915</v>
       </c>
       <c r="D287" t="n">
-        <v>2.444734811782837</v>
+        <v>2.444734573364258</v>
       </c>
     </row>
     <row r="288">
@@ -4582,7 +4582,7 @@
         <v>2.075163308382506</v>
       </c>
       <c r="D296" t="n">
-        <v>2.212159156799316</v>
+        <v>2.212159395217896</v>
       </c>
     </row>
     <row r="297">
@@ -4624,7 +4624,7 @@
         <v>1.689572852183451</v>
       </c>
       <c r="D299" t="n">
-        <v>1.434792876243591</v>
+        <v>1.434792637825012</v>
       </c>
     </row>
     <row r="300">
@@ -4666,7 +4666,7 @@
         <v>1.715345150740752</v>
       </c>
       <c r="D302" t="n">
-        <v>1.157175421714783</v>
+        <v>1.157175540924072</v>
       </c>
     </row>
     <row r="303">
@@ -4680,7 +4680,7 @@
         <v>1.787759721696597</v>
       </c>
       <c r="D303" t="n">
-        <v>1.218533873558044</v>
+        <v>1.218533992767334</v>
       </c>
     </row>
     <row r="304">
@@ -4778,7 +4778,7 @@
         <v>2.708729952222133</v>
       </c>
       <c r="D310" t="n">
-        <v>2.536719799041748</v>
+        <v>2.536720037460327</v>
       </c>
     </row>
     <row r="311">
@@ -5016,7 +5016,7 @@
         <v>2.497018826109059</v>
       </c>
       <c r="D327" t="n">
-        <v>2.570650815963745</v>
+        <v>2.570650577545166</v>
       </c>
     </row>
     <row r="328">
@@ -5044,7 +5044,7 @@
         <v>2.074479952353908</v>
       </c>
       <c r="D329" t="n">
-        <v>1.964719295501709</v>
+        <v>1.964719414710999</v>
       </c>
     </row>
     <row r="330">
@@ -5058,7 +5058,7 @@
         <v>1.947283195498546</v>
       </c>
       <c r="D330" t="n">
-        <v>1.702370405197144</v>
+        <v>1.702370524406433</v>
       </c>
     </row>
     <row r="331">
@@ -5114,7 +5114,7 @@
         <v>1.897732083006946</v>
       </c>
       <c r="D334" t="n">
-        <v>1.210627794265747</v>
+        <v>1.210628271102905</v>
       </c>
     </row>
     <row r="335">
@@ -5240,7 +5240,7 @@
         <v>3.030320375872415</v>
       </c>
       <c r="D343" t="n">
-        <v>2.665620088577271</v>
+        <v>2.66562032699585</v>
       </c>
     </row>
     <row r="344">
@@ -5254,7 +5254,7 @@
         <v>3.156029542685531</v>
       </c>
       <c r="D344" t="n">
-        <v>2.700175285339355</v>
+        <v>2.700175046920776</v>
       </c>
     </row>
     <row r="345">
@@ -5282,7 +5282,7 @@
         <v>3.342927274323165</v>
       </c>
       <c r="D346" t="n">
-        <v>2.701420307159424</v>
+        <v>2.701420545578003</v>
       </c>
     </row>
     <row r="347">
@@ -5366,7 +5366,7 @@
         <v>3.200518411530445</v>
       </c>
       <c r="D352" t="n">
-        <v>2.52389121055603</v>
+        <v>2.523890972137451</v>
       </c>
     </row>
     <row r="353">
@@ -5506,7 +5506,7 @@
         <v>2.091544065075357</v>
       </c>
       <c r="D362" t="n">
-        <v>1.769978642463684</v>
+        <v>1.769978761672974</v>
       </c>
     </row>
     <row r="363">
@@ -5520,7 +5520,7 @@
         <v>2.016220654026455</v>
       </c>
       <c r="D363" t="n">
-        <v>1.554299473762512</v>
+        <v>1.554299235343933</v>
       </c>
     </row>
     <row r="364">
@@ -5534,7 +5534,7 @@
         <v>1.987027692981283</v>
       </c>
       <c r="D364" t="n">
-        <v>1.394957900047302</v>
+        <v>1.394957661628723</v>
       </c>
     </row>
     <row r="365">
@@ -5548,7 +5548,7 @@
         <v>1.997664002126692</v>
       </c>
       <c r="D365" t="n">
-        <v>1.302032232284546</v>
+        <v>1.302031993865967</v>
       </c>
     </row>
     <row r="366">
@@ -5590,7 +5590,7 @@
         <v>2.209936136130296</v>
       </c>
       <c r="D368" t="n">
-        <v>1.489081978797913</v>
+        <v>1.489081740379333</v>
       </c>
     </row>
     <row r="369">
@@ -5604,7 +5604,7 @@
         <v>2.324172625385834</v>
       </c>
       <c r="D369" t="n">
-        <v>1.695406079292297</v>
+        <v>1.695406198501587</v>
       </c>
     </row>
     <row r="370">
@@ -5730,7 +5730,7 @@
         <v>3.487188143899976</v>
       </c>
       <c r="D378" t="n">
-        <v>2.787920475006104</v>
+        <v>2.787920236587524</v>
       </c>
     </row>
     <row r="379">
@@ -5758,7 +5758,7 @@
         <v>3.554914063342514</v>
       </c>
       <c r="D380" t="n">
-        <v>2.744374990463257</v>
+        <v>2.744374752044678</v>
       </c>
     </row>
     <row r="381">
@@ -5772,7 +5772,7 @@
         <v>3.538607065144381</v>
       </c>
       <c r="D381" t="n">
-        <v>2.714843511581421</v>
+        <v>2.714843273162842</v>
       </c>
     </row>
     <row r="382">
@@ -5786,7 +5786,7 @@
         <v>3.492234556845305</v>
       </c>
       <c r="D382" t="n">
-        <v>2.683093786239624</v>
+        <v>2.683094024658203</v>
       </c>
     </row>
     <row r="383">
@@ -5814,7 +5814,7 @@
         <v>3.344779281107255</v>
       </c>
       <c r="D384" t="n">
-        <v>2.617865562438965</v>
+        <v>2.617865324020386</v>
       </c>
     </row>
     <row r="385">
@@ -5912,7 +5912,7 @@
         <v>2.729128613159167</v>
       </c>
       <c r="D391" t="n">
-        <v>2.710400581359863</v>
+        <v>2.710400342941284</v>
       </c>
     </row>
     <row r="392">
@@ -5926,7 +5926,7 @@
         <v>2.489660027698808</v>
       </c>
       <c r="D392" t="n">
-        <v>2.40097451210022</v>
+        <v>2.400974273681641</v>
       </c>
     </row>
     <row r="393">
@@ -5940,7 +5940,7 @@
         <v>2.306589739404017</v>
       </c>
       <c r="D393" t="n">
-        <v>2.109767436981201</v>
+        <v>2.10976767539978</v>
       </c>
     </row>
     <row r="394">
@@ -5954,7 +5954,7 @@
         <v>2.179392982548654</v>
       </c>
       <c r="D394" t="n">
-        <v>1.850971937179565</v>
+        <v>1.850972056388855</v>
       </c>
     </row>
     <row r="395">
@@ -6010,7 +6010,7 @@
         <v>2.129841870057054</v>
       </c>
       <c r="D398" t="n">
-        <v>1.372144341468811</v>
+        <v>1.372143983840942</v>
       </c>
     </row>
     <row r="399">
@@ -6066,7 +6066,7 @@
         <v>2.540945586332646</v>
       </c>
       <c r="D402" t="n">
-        <v>2.029958009719849</v>
+        <v>2.02995777130127</v>
       </c>
     </row>
     <row r="403">
@@ -6080,7 +6080,7 @@
         <v>2.680685618477865</v>
       </c>
       <c r="D403" t="n">
-        <v>2.274914026260376</v>
+        <v>2.274914264678955</v>
       </c>
     </row>
     <row r="404">
@@ -6108,7 +6108,7 @@
         <v>2.976382395011456</v>
       </c>
       <c r="D405" t="n">
-        <v>2.657772064208984</v>
+        <v>2.657772302627563</v>
       </c>
     </row>
     <row r="406">
@@ -6150,7 +6150,7 @@
         <v>3.388139329735639</v>
       </c>
       <c r="D408" t="n">
-        <v>2.883366107940674</v>
+        <v>2.883366346359253</v>
       </c>
     </row>
     <row r="409">
@@ -6206,7 +6206,7 @@
         <v>3.642762980815812</v>
       </c>
       <c r="D412" t="n">
-        <v>2.847738742828369</v>
+        <v>2.84773850440979</v>
       </c>
     </row>
     <row r="413">
@@ -6360,7 +6360,7 @@
         <v>2.744047075121595</v>
       </c>
       <c r="D423" t="n">
-        <v>2.782825946807861</v>
+        <v>2.78282618522644</v>
       </c>
     </row>
     <row r="424">
@@ -6388,7 +6388,7 @@
         <v>2.321508201366445</v>
       </c>
       <c r="D425" t="n">
-        <v>2.185510635375977</v>
+        <v>2.185510396957397</v>
       </c>
     </row>
     <row r="426">
@@ -6416,7 +6416,7 @@
         <v>2.118988033462181</v>
       </c>
       <c r="D427" t="n">
-        <v>1.717042565345764</v>
+        <v>1.717042803764343</v>
       </c>
     </row>
     <row r="428">
@@ -6654,7 +6654,7 @@
         <v>3.65768144277824</v>
       </c>
       <c r="D444" t="n">
-        <v>2.944074153900146</v>
+        <v>2.944074392318726</v>
       </c>
     </row>
     <row r="445">
@@ -6696,7 +6696,7 @@
         <v>3.526340850034986</v>
       </c>
       <c r="D447" t="n">
-        <v>2.855329036712646</v>
+        <v>2.855328798294067</v>
       </c>
     </row>
     <row r="448">
@@ -6752,7 +6752,7 @@
         <v>3.943877332941301</v>
       </c>
       <c r="D451" t="n">
-        <v>3.966387748718262</v>
+        <v>3.966387510299683</v>
       </c>
     </row>
     <row r="452">
@@ -6864,7 +6864,7 @@
         <v>2.048783642613968</v>
       </c>
       <c r="D459" t="n">
-        <v>1.763078927993774</v>
+        <v>1.763078689575195</v>
       </c>
     </row>
     <row r="460">
@@ -6878,7 +6878,7 @@
         <v>2.019590681568795</v>
       </c>
       <c r="D460" t="n">
-        <v>1.609056949615479</v>
+        <v>1.609056711196899</v>
       </c>
     </row>
     <row r="461">
@@ -6948,7 +6948,7 @@
         <v>2.356735613973346</v>
       </c>
       <c r="D465" t="n">
-        <v>1.92439866065979</v>
+        <v>1.9243985414505</v>
       </c>
     </row>
     <row r="466">
@@ -7158,7 +7158,7 @@
         <v>3.377342269694767</v>
       </c>
       <c r="D480" t="n">
-        <v>2.881011962890625</v>
+        <v>2.881012201309204</v>
       </c>
     </row>
     <row r="481">
@@ -7172,7 +7172,7 @@
         <v>3.304200167737621</v>
       </c>
       <c r="D481" t="n">
-        <v>2.850857257843018</v>
+        <v>2.850857496261597</v>
       </c>
     </row>
     <row r="482">
@@ -7242,7 +7242,7 @@
         <v>2.804429729284334</v>
       </c>
       <c r="D486" t="n">
-        <v>3.099680423736572</v>
+        <v>3.099680662155151</v>
       </c>
     </row>
     <row r="487">
@@ -7256,7 +7256,7 @@
         <v>2.513824652092983</v>
       </c>
       <c r="D487" t="n">
-        <v>2.790006637573242</v>
+        <v>2.790006399154663</v>
       </c>
     </row>
     <row r="488">
@@ -7270,7 +7270,7 @@
         <v>2.274356066632625</v>
       </c>
       <c r="D488" t="n">
-        <v>2.484836101531982</v>
+        <v>2.484836339950562</v>
       </c>
     </row>
     <row r="489">
@@ -7284,7 +7284,7 @@
         <v>2.091285778337833</v>
       </c>
       <c r="D489" t="n">
-        <v>2.198725938796997</v>
+        <v>2.198726177215576</v>
       </c>
     </row>
     <row r="490">
@@ -7368,7 +7368,7 @@
         <v>1.986952479946716</v>
       </c>
       <c r="D495" t="n">
-        <v>1.549263119697571</v>
+        <v>1.54926323890686</v>
       </c>
     </row>
     <row r="496">
@@ -7382,7 +7382,7 @@
         <v>2.082481092537411</v>
       </c>
       <c r="D496" t="n">
-        <v>1.693310022354126</v>
+        <v>1.693309903144836</v>
       </c>
     </row>
     <row r="497">
@@ -7494,7 +7494,7 @@
         <v>3.172835368669456</v>
       </c>
       <c r="D504" t="n">
-        <v>3.010417699813843</v>
+        <v>3.010417938232422</v>
       </c>
     </row>
     <row r="505">
@@ -7536,7 +7536,7 @@
         <v>3.41023952921727</v>
       </c>
       <c r="D507" t="n">
-        <v>3.002073049545288</v>
+        <v>3.002072811126709</v>
       </c>
     </row>
     <row r="508">
@@ -7550,7 +7550,7 @@
         <v>3.427459019749628</v>
       </c>
       <c r="D508" t="n">
-        <v>2.978574514389038</v>
+        <v>2.978574752807617</v>
       </c>
     </row>
     <row r="509">
@@ -7564,7 +7564,7 @@
         <v>3.411152021551496</v>
       </c>
       <c r="D509" t="n">
-        <v>2.950798273086548</v>
+        <v>2.950798034667969</v>
       </c>
     </row>
     <row r="510">
@@ -7592,7 +7592,7 @@
         <v>3.296118427006374</v>
       </c>
       <c r="D511" t="n">
-        <v>2.889781713485718</v>
+        <v>2.889781475067139</v>
       </c>
     </row>
     <row r="512">
@@ -7648,7 +7648,7 @@
         <v>3.540078759190842</v>
       </c>
       <c r="D515" t="n">
-        <v>3.798846483230591</v>
+        <v>3.79884672164917</v>
       </c>
     </row>
     <row r="516">
@@ -7662,7 +7662,7 @@
         <v>3.228256295380858</v>
       </c>
       <c r="D516" t="n">
-        <v>3.546844482421875</v>
+        <v>3.546844244003296</v>
       </c>
     </row>
     <row r="517">
@@ -7704,7 +7704,7 @@
         <v>2.270044110522922</v>
       </c>
       <c r="D519" t="n">
-        <v>2.657741785049438</v>
+        <v>2.657741546630859</v>
       </c>
     </row>
     <row r="520">
@@ -7760,7 +7760,7 @@
         <v>1.644985068863508</v>
       </c>
       <c r="D523" t="n">
-        <v>1.610081195831299</v>
+        <v>1.610081076622009</v>
       </c>
     </row>
     <row r="524">
@@ -7816,7 +7816,7 @@
         <v>1.743171938376655</v>
       </c>
       <c r="D527" t="n">
-        <v>1.424315452575684</v>
+        <v>1.424315333366394</v>
       </c>
     </row>
     <row r="528">
@@ -7928,7 +7928,7 @@
         <v>2.803345660286278</v>
       </c>
       <c r="D535" t="n">
-        <v>2.846803426742554</v>
+        <v>2.846803665161133</v>
       </c>
     </row>
     <row r="536">
@@ -7970,7 +7970,7 @@
         <v>3.115952558737029</v>
       </c>
       <c r="D538" t="n">
-        <v>2.892654895782471</v>
+        <v>2.89265513420105</v>
       </c>
     </row>
     <row r="539">
@@ -7998,7 +7998,7 @@
         <v>3.183678478179567</v>
       </c>
       <c r="D540" t="n">
-        <v>2.852453231811523</v>
+        <v>2.852452993392944</v>
       </c>
     </row>
     <row r="541">
@@ -8040,7 +8040,7 @@
         <v>3.052337885436313</v>
       </c>
       <c r="D543" t="n">
-        <v>2.762896060943604</v>
+        <v>2.762896299362183</v>
       </c>
     </row>
     <row r="544">
@@ -8068,7 +8068,7 @@
         <v>2.900401593987162</v>
       </c>
       <c r="D545" t="n">
-        <v>2.701072454452515</v>
+        <v>2.701072692871094</v>
       </c>
     </row>
     <row r="546">
@@ -8124,7 +8124,7 @@
         <v>2.580225325654655</v>
       </c>
       <c r="D549" t="n">
-        <v>3.038632392883301</v>
+        <v>3.03863263130188</v>
       </c>
     </row>
     <row r="550">
@@ -8180,7 +8180,7 @@
         <v>1.539191721798274</v>
       </c>
       <c r="D553" t="n">
-        <v>1.841477513313293</v>
+        <v>1.841477751731873</v>
       </c>
     </row>
     <row r="554">
@@ -8236,7 +8236,7 @@
         <v>1.318114901994247</v>
       </c>
       <c r="D557" t="n">
-        <v>1.147454857826233</v>
+        <v>1.147454977035522</v>
       </c>
     </row>
     <row r="558">
@@ -8264,7 +8264,7 @@
         <v>1.434858423407156</v>
       </c>
       <c r="D559" t="n">
-        <v>1.199806928634644</v>
+        <v>1.199807167053223</v>
       </c>
     </row>
     <row r="560">
@@ -8306,7 +8306,7 @@
         <v>1.773547568726903</v>
       </c>
       <c r="D562" t="n">
-        <v>1.795024037361145</v>
+        <v>1.795023918151855</v>
       </c>
     </row>
     <row r="563">
@@ -8362,7 +8362,7 @@
         <v>2.355828653932692</v>
       </c>
       <c r="D566" t="n">
-        <v>2.546169757843018</v>
+        <v>2.546169519424438</v>
       </c>
     </row>
     <row r="567">
@@ -8446,7 +8446,7 @@
         <v>2.875364963210069</v>
       </c>
       <c r="D572" t="n">
-        <v>2.6231689453125</v>
+        <v>2.623168706893921</v>
       </c>
     </row>
     <row r="573">
@@ -8488,7 +8488,7 @@
         <v>2.744024370466815</v>
       </c>
       <c r="D575" t="n">
-        <v>2.532229661941528</v>
+        <v>2.532229423522949</v>
       </c>
     </row>
     <row r="576">
@@ -8572,7 +8572,7 @@
         <v>2.240314034521995</v>
       </c>
       <c r="D581" t="n">
-        <v>2.762431621551514</v>
+        <v>2.762431383132935</v>
       </c>
     </row>
     <row r="582">
@@ -8586,7 +8586,7 @@
         <v>1.912424381612114</v>
       </c>
       <c r="D582" t="n">
-        <v>2.459752798080444</v>
+        <v>2.459753036499023</v>
       </c>
     </row>
     <row r="583">
@@ -8670,7 +8670,7 @@
         <v>0.967567301716177</v>
       </c>
       <c r="D588" t="n">
-        <v>0.9553358554840088</v>
+        <v>0.9553356170654297</v>
       </c>
     </row>
     <row r="589">
@@ -8712,7 +8712,7 @@
         <v>1.094947132274496</v>
       </c>
       <c r="D591" t="n">
-        <v>0.9199131727218628</v>
+        <v>0.9199128150939941</v>
       </c>
     </row>
     <row r="592">
@@ -8768,7 +8768,7 @@
         <v>1.573376309739461</v>
       </c>
       <c r="D595" t="n">
-        <v>1.757418155670166</v>
+        <v>1.757418036460876</v>
       </c>
     </row>
     <row r="596">
@@ -8810,7 +8810,7 @@
         <v>2.015917362800032</v>
       </c>
       <c r="D598" t="n">
-        <v>2.260181665420532</v>
+        <v>2.260181427001953</v>
       </c>
     </row>
     <row r="599">
@@ -8852,7 +8852,7 @@
         <v>2.38697124477385</v>
       </c>
       <c r="D601" t="n">
-        <v>2.381112813949585</v>
+        <v>2.381112575531006</v>
       </c>
     </row>
     <row r="602">
@@ -8950,7 +8950,7 @@
         <v>2.32531888984215</v>
       </c>
       <c r="D608" t="n">
-        <v>2.205215930938721</v>
+        <v>2.2052161693573</v>
       </c>
     </row>
     <row r="609">
@@ -9006,7 +9006,7 @@
         <v>2.252671513243309</v>
       </c>
       <c r="D612" t="n">
-        <v>2.791331768035889</v>
+        <v>2.79133152961731</v>
       </c>
     </row>
     <row r="613">
@@ -9034,7 +9034,7 @@
         <v>1.585064405576723</v>
       </c>
       <c r="D614" t="n">
-        <v>2.199005842208862</v>
+        <v>2.199006319046021</v>
       </c>
     </row>
     <row r="615">
@@ -9090,7 +9090,7 @@
         <v>0.7447236977748599</v>
       </c>
       <c r="D618" t="n">
-        <v>1.04594898223877</v>
+        <v>1.045949101448059</v>
       </c>
     </row>
     <row r="619">
@@ -9160,7 +9160,7 @@
         <v>0.767587156239105</v>
       </c>
       <c r="D623" t="n">
-        <v>0.6509616374969482</v>
+        <v>0.6509619951248169</v>
       </c>
     </row>
     <row r="624">
@@ -9174,7 +9174,7 @@
         <v>0.8631157688297999</v>
       </c>
       <c r="D624" t="n">
-        <v>0.7919199466705322</v>
+        <v>0.7919198274612427</v>
       </c>
     </row>
     <row r="625">
@@ -9188,7 +9188,7 @@
         <v>0.977352258085338</v>
       </c>
       <c r="D625" t="n">
-        <v>0.9969322681427002</v>
+        <v>0.9969323873519897</v>
       </c>
     </row>
     <row r="626">
@@ -9202,7 +9202,7 @@
         <v>1.106276301558852</v>
       </c>
       <c r="D626" t="n">
-        <v>1.238935112953186</v>
+        <v>1.238935351371765</v>
       </c>
     </row>
     <row r="627">
@@ -9300,7 +9300,7 @@
         <v>2.05961126873846</v>
       </c>
       <c r="D633" t="n">
-        <v>2.099085807800293</v>
+        <v>2.099086046218872</v>
       </c>
     </row>
     <row r="634">
@@ -9328,7 +9328,7 @@
         <v>2.190874205509659</v>
       </c>
       <c r="D635" t="n">
-        <v>2.071919202804565</v>
+        <v>2.071918964385986</v>
       </c>
     </row>
     <row r="636">
@@ -9398,7 +9398,7 @@
         <v>1.997958913806759</v>
       </c>
       <c r="D640" t="n">
-        <v>1.912064909934998</v>
+        <v>1.912064790725708</v>
       </c>
     </row>
     <row r="641">
@@ -9482,7 +9482,7 @@
         <v>1.319393394522155</v>
       </c>
       <c r="D646" t="n">
-        <v>2.003133535385132</v>
+        <v>2.00313401222229</v>
       </c>
     </row>
     <row r="647">
@@ -9510,7 +9510,7 @@
         <v>0.7893197318704457</v>
       </c>
       <c r="D648" t="n">
-        <v>1.381277322769165</v>
+        <v>1.381277561187744</v>
       </c>
     </row>
     <row r="649">
@@ -9524,7 +9524,7 @@
         <v>0.606249443575654</v>
       </c>
       <c r="D649" t="n">
-        <v>1.095421433448792</v>
+        <v>1.095421075820923</v>
       </c>
     </row>
     <row r="650">
@@ -9622,7 +9622,7 @@
         <v>0.5974447577752313</v>
       </c>
       <c r="D656" t="n">
-        <v>0.5832880735397339</v>
+        <v>0.5832884311676025</v>
       </c>
     </row>
     <row r="657">
@@ -9650,7 +9650,7 @@
         <v>0.8406052905042833</v>
       </c>
       <c r="D658" t="n">
-        <v>1.027600765228271</v>
+        <v>1.02760124206543</v>
       </c>
     </row>
     <row r="659">
@@ -9678,7 +9678,7 @@
         <v>1.126926511828807</v>
       </c>
       <c r="D660" t="n">
-        <v>1.484287261962891</v>
+        <v>1.484287142753601</v>
       </c>
     </row>
     <row r="661">
@@ -9790,7 +9790,7 @@
         <v>1.942422684987449</v>
       </c>
       <c r="D668" t="n">
-        <v>1.819517731666565</v>
+        <v>1.819517612457275</v>
       </c>
     </row>
     <row r="669">
@@ -9818,7 +9818,7 @@
         <v>1.879743178490241</v>
       </c>
       <c r="D670" t="n">
-        <v>1.751290202140808</v>
+        <v>1.751290321350098</v>
       </c>
     </row>
     <row r="671">
@@ -9846,7 +9846,7 @@
         <v>1.73228790275219</v>
       </c>
       <c r="D672" t="n">
-        <v>1.678734660148621</v>
+        <v>1.678734540939331</v>
       </c>
     </row>
     <row r="673">
@@ -9888,7 +9888,7 @@
         <v>2.13919895140194</v>
       </c>
       <c r="D675" t="n">
-        <v>2.753194808959961</v>
+        <v>2.753194570541382</v>
       </c>
     </row>
     <row r="676">
@@ -9930,7 +9930,7 @@
         <v>1.159769379925371</v>
       </c>
       <c r="D678" t="n">
-        <v>1.884053707122803</v>
+        <v>1.884053945541382</v>
       </c>
     </row>
     <row r="679">
@@ -9944,7 +9944,7 @@
         <v>0.8691643027340208</v>
       </c>
       <c r="D679" t="n">
-        <v>1.567621111869812</v>
+        <v>1.567621350288391</v>
       </c>
     </row>
     <row r="680">
@@ -9958,7 +9958,7 @@
         <v>0.6296957172736617</v>
       </c>
       <c r="D680" t="n">
-        <v>1.259028315544128</v>
+        <v>1.259028553962708</v>
       </c>
     </row>
     <row r="681">
@@ -10126,7 +10126,7 @@
         <v>0.9673024972320239</v>
       </c>
       <c r="D692" t="n">
-        <v>1.349954605102539</v>
+        <v>1.34995448589325</v>
       </c>
     </row>
     <row r="693">
@@ -10210,7 +10210,7 @@
         <v>1.715072750948127</v>
       </c>
       <c r="D698" t="n">
-        <v>1.728835582733154</v>
+        <v>1.728835701942444</v>
       </c>
     </row>
     <row r="699">
@@ -10294,7 +10294,7 @@
         <v>1.572663888155407</v>
       </c>
       <c r="D704" t="n">
-        <v>1.528516173362732</v>
+        <v>1.528516411781311</v>
       </c>
     </row>
     <row r="705">
@@ -10322,7 +10322,7 @@
         <v>2.341998918412778</v>
       </c>
       <c r="D706" t="n">
-        <v>2.940392017364502</v>
+        <v>2.940391778945923</v>
       </c>
     </row>
     <row r="707">
@@ -10364,7 +10364,7 @@
         <v>1.461905255417934</v>
       </c>
       <c r="D709" t="n">
-        <v>2.141324996948242</v>
+        <v>2.141325235366821</v>
       </c>
     </row>
     <row r="710">
@@ -10378,7 +10378,7 @@
         <v>1.134015602508053</v>
       </c>
       <c r="D710" t="n">
-        <v>1.82937490940094</v>
+        <v>1.829374670982361</v>
       </c>
     </row>
     <row r="711">
@@ -10392,7 +10392,7 @@
         <v>0.843410525316703</v>
       </c>
       <c r="D711" t="n">
-        <v>1.511950254440308</v>
+        <v>1.511950492858887</v>
       </c>
     </row>
     <row r="712">
@@ -10434,7 +10434,7 @@
         <v>0.2936748947061902</v>
       </c>
       <c r="D714" t="n">
-        <v>0.6622940301895142</v>
+        <v>0.6622941493988037</v>
       </c>
     </row>
     <row r="715">
@@ -10448,7 +10448,7 @@
         <v>0.2183514836572893</v>
       </c>
       <c r="D715" t="n">
-        <v>0.4541001319885254</v>
+        <v>0.4541002511978149</v>
       </c>
     </row>
     <row r="716">
@@ -10490,7 +10490,7 @@
         <v>0.2441237822145901</v>
       </c>
       <c r="D718" t="n">
-        <v>0.1919783353805542</v>
+        <v>0.1919779777526855</v>
       </c>
     </row>
     <row r="719">
@@ -10560,7 +10560,7 @@
         <v>0.7949675306354007</v>
       </c>
       <c r="D723" t="n">
-        <v>1.071846008300781</v>
+        <v>1.071846127510071</v>
       </c>
     </row>
     <row r="724">
@@ -10574,7 +10574,7 @@
         <v>0.9415487198147059</v>
       </c>
       <c r="D724" t="n">
-        <v>1.28491222858429</v>
+        <v>1.284912347793579</v>
       </c>
     </row>
     <row r="725">
@@ -10616,7 +10616,7 @@
         <v>1.376712075080059</v>
       </c>
       <c r="D727" t="n">
-        <v>1.633837342262268</v>
+        <v>1.633837461471558</v>
       </c>
     </row>
     <row r="728">
@@ -10686,7 +10686,7 @@
         <v>1.757044892973348</v>
       </c>
       <c r="D732" t="n">
-        <v>1.607120037078857</v>
+        <v>1.607120156288147</v>
       </c>
     </row>
     <row r="733">
@@ -10756,7 +10756,7 @@
         <v>1.473768008780942</v>
       </c>
       <c r="D737" t="n">
-        <v>1.415397167205811</v>
+        <v>1.415396928787231</v>
       </c>
     </row>
     <row r="738">
@@ -10840,7 +10840,7 @@
         <v>0.952141424643709</v>
       </c>
       <c r="D743" t="n">
-        <v>1.501916885375977</v>
+        <v>1.501917123794556</v>
       </c>
     </row>
     <row r="744">
@@ -10868,7 +10868,7 @@
         <v>0.5296025508885587</v>
       </c>
       <c r="D745" t="n">
-        <v>0.9058505296707153</v>
+        <v>0.9058504104614258</v>
       </c>
     </row>
     <row r="746">
@@ -10952,7 +10952,7 @@
         <v>0.4252692524974411</v>
       </c>
       <c r="D751" t="n">
-        <v>0.2393480539321899</v>
+        <v>0.2393485307693481</v>
       </c>
     </row>
     <row r="752">
@@ -10966,7 +10966,7 @@
         <v>0.520797865088136</v>
       </c>
       <c r="D752" t="n">
-        <v>0.375391960144043</v>
+        <v>0.3753924369812012</v>
       </c>
     </row>
     <row r="753">
@@ -10980,7 +10980,7 @@
         <v>0.6350343543436741</v>
       </c>
       <c r="D753" t="n">
-        <v>0.5760494470596313</v>
+        <v>0.5760492086410522</v>
       </c>
     </row>
     <row r="754">
@@ -10994,7 +10994,7 @@
         <v>0.763958397817188</v>
       </c>
       <c r="D754" t="n">
-        <v>0.8146313428878784</v>
+        <v>0.8146315813064575</v>
       </c>
     </row>
     <row r="755">
@@ -11106,7 +11106,7 @@
         <v>1.798049872857815</v>
       </c>
       <c r="D762" t="n">
-        <v>1.64763331413269</v>
+        <v>1.647633194923401</v>
       </c>
     </row>
     <row r="763">
@@ -11176,7 +11176,7 @@
         <v>1.7344351995571</v>
       </c>
       <c r="D767" t="n">
-        <v>1.477045297622681</v>
+        <v>1.47704553604126</v>
       </c>
     </row>
     <row r="768">
@@ -11316,7 +11316,7 @@
         <v>0.7407487825933514</v>
       </c>
       <c r="D777" t="n">
-        <v>0.9259165525436401</v>
+        <v>0.9259166717529297</v>
       </c>
     </row>
     <row r="778">
@@ -11372,7 +11372,7 @@
         <v>0.5196719627893247</v>
       </c>
       <c r="D781" t="n">
-        <v>0.2214134931564331</v>
+        <v>0.2214138507843018</v>
       </c>
     </row>
     <row r="782">
@@ -11512,7 +11512,7 @@
         <v>1.696589206111857</v>
       </c>
       <c r="D791" t="n">
-        <v>1.637822389602661</v>
+        <v>1.637822270393372</v>
       </c>
     </row>
     <row r="792">
@@ -11540,7 +11540,7 @@
         <v>1.928439596701589</v>
       </c>
       <c r="D793" t="n">
-        <v>1.678667545318604</v>
+        <v>1.678667426109314</v>
       </c>
     </row>
     <row r="794">
@@ -11666,7 +11666,7 @@
         <v>2.914322742548753</v>
       </c>
       <c r="D802" t="n">
-        <v>2.992544412612915</v>
+        <v>2.992544174194336</v>
       </c>
     </row>
     <row r="803">
@@ -11680,7 +11680,7 @@
         <v>2.685768998120597</v>
       </c>
       <c r="D803" t="n">
-        <v>2.752214670181274</v>
+        <v>2.752214431762695</v>
       </c>
     </row>
     <row r="804">
@@ -11694,7 +11694,7 @@
         <v>2.373946534310615</v>
       </c>
       <c r="D804" t="n">
-        <v>2.480891466140747</v>
+        <v>2.480891227722168</v>
       </c>
     </row>
     <row r="805">
@@ -11708,7 +11708,7 @@
         <v>2.034229079553909</v>
       </c>
       <c r="D805" t="n">
-        <v>2.184214115142822</v>
+        <v>2.184213876724243</v>
       </c>
     </row>
     <row r="806">
@@ -11722,7 +11722,7 @@
         <v>1.706339426644028</v>
       </c>
       <c r="D806" t="n">
-        <v>1.871489405632019</v>
+        <v>1.871489286422729</v>
       </c>
     </row>
     <row r="807">
@@ -11862,7 +11862,7 @@
         <v>0.9843907898971047</v>
       </c>
       <c r="D816" t="n">
-        <v>0.4329204559326172</v>
+        <v>0.4329209327697754</v>
       </c>
     </row>
     <row r="817">
@@ -11904,7 +11904,7 @@
         <v>1.367291354771375</v>
       </c>
       <c r="D819" t="n">
-        <v>1.109586834907532</v>
+        <v>1.109587073326111</v>
       </c>
     </row>
     <row r="820">
@@ -11946,7 +11946,7 @@
         <v>1.809832407831946</v>
       </c>
       <c r="D822" t="n">
-        <v>1.604963302612305</v>
+        <v>1.604963183403015</v>
       </c>
     </row>
     <row r="823">
@@ -11974,7 +11974,7 @@
         <v>2.07474506602915</v>
       </c>
       <c r="D824" t="n">
-        <v>1.709478735923767</v>
+        <v>1.709478616714478</v>
       </c>
     </row>
     <row r="825">
@@ -12030,7 +12030,7 @@
         <v>2.329368717109323</v>
       </c>
       <c r="D828" t="n">
-        <v>1.653410673141479</v>
+        <v>1.6534104347229</v>
       </c>
     </row>
     <row r="829">
@@ -12058,7 +12058,7 @@
         <v>2.266689210612114</v>
       </c>
       <c r="D830" t="n">
-        <v>1.578578948974609</v>
+        <v>1.578579187393188</v>
       </c>
     </row>
     <row r="831">
@@ -12100,7 +12100,7 @@
         <v>2.046091832916917</v>
       </c>
       <c r="D833" t="n">
-        <v>1.45618748664856</v>
+        <v>1.45618724822998</v>
       </c>
     </row>
     <row r="834">
@@ -12198,7 +12198,7 @@
         <v>1.394413501562878</v>
       </c>
       <c r="D840" t="n">
-        <v>1.291825175285339</v>
+        <v>1.291825413703918</v>
       </c>
     </row>
     <row r="841">
@@ -12226,7 +12226,7 @@
         <v>1.084146456412724</v>
       </c>
       <c r="D842" t="n">
-        <v>0.7599349021911621</v>
+        <v>0.7599350214004517</v>
       </c>
     </row>
     <row r="843">
@@ -12296,7 +12296,7 @@
         <v>1.107009914876969</v>
       </c>
       <c r="D847" t="n">
-        <v>0.3491994142532349</v>
+        <v>0.3491997718811035</v>
       </c>
     </row>
     <row r="848">
@@ -12310,7 +12310,7 @@
         <v>1.202538527467664</v>
       </c>
       <c r="D848" t="n">
-        <v>0.4828566312789917</v>
+        <v>0.4828563928604126</v>
       </c>
     </row>
     <row r="849">
@@ -12324,7 +12324,7 @@
         <v>1.316775016723202</v>
       </c>
       <c r="D849" t="n">
-        <v>0.6810891628265381</v>
+        <v>0.6810896396636963</v>
       </c>
     </row>
     <row r="850">
@@ -12338,7 +12338,7 @@
         <v>1.445699060196716</v>
       </c>
       <c r="D850" t="n">
-        <v>0.917718768119812</v>
+        <v>0.9177186489105225</v>
       </c>
     </row>
     <row r="851">
@@ -12380,7 +12380,7 @@
         <v>1.881135868875526</v>
       </c>
       <c r="D853" t="n">
-        <v>1.537597417831421</v>
+        <v>1.537597179412842</v>
       </c>
     </row>
     <row r="854">
@@ -12436,7 +12436,7 @@
         <v>2.399034027376324</v>
       </c>
       <c r="D857" t="n">
-        <v>1.766721487045288</v>
+        <v>1.766721606254578</v>
       </c>
     </row>
     <row r="858">
@@ -12576,7 +12576,7 @@
         <v>3.020956171665618</v>
       </c>
       <c r="D867" t="n">
-        <v>2.83822226524353</v>
+        <v>2.838222503662109</v>
       </c>
     </row>
     <row r="868">
@@ -12646,7 +12646,7 @@
         <v>1.511452937537339</v>
       </c>
       <c r="D872" t="n">
-        <v>1.339354634284973</v>
+        <v>1.339354991912842</v>
       </c>
     </row>
     <row r="873">
@@ -12660,7 +12660,7 @@
         <v>1.328382649242548</v>
       </c>
       <c r="D873" t="n">
-        <v>1.058325290679932</v>
+        <v>1.058325529098511</v>
       </c>
     </row>
     <row r="874">
@@ -12702,7 +12702,7 @@
         <v>1.096669520293112</v>
       </c>
       <c r="D876" t="n">
-        <v>0.4569646120071411</v>
+        <v>0.4569641351699829</v>
       </c>
     </row>
     <row r="877">
@@ -12730,7 +12730,7 @@
         <v>1.151634779895585</v>
       </c>
       <c r="D878" t="n">
-        <v>0.3477180004119873</v>
+        <v>0.3477176427841187</v>
       </c>
     </row>
     <row r="879">
@@ -12772,7 +12772,7 @@
         <v>1.433814452697663</v>
       </c>
       <c r="D881" t="n">
-        <v>0.7362087965011597</v>
+        <v>0.7362090349197388</v>
       </c>
     </row>
     <row r="882">
@@ -12814,7 +12814,7 @@
         <v>1.849059717495701</v>
       </c>
       <c r="D884" t="n">
-        <v>1.42604124546051</v>
+        <v>1.4260413646698</v>
       </c>
     </row>
     <row r="885">
@@ -12842,7 +12842,7 @@
         <v>2.145019581376967</v>
       </c>
       <c r="D886" t="n">
-        <v>1.708361625671387</v>
+        <v>1.708361506462097</v>
       </c>
     </row>
     <row r="887">
@@ -12898,7 +12898,7 @@
         <v>2.596829971211804</v>
       </c>
       <c r="D890" t="n">
-        <v>1.812265753746033</v>
+        <v>1.812265634536743</v>
       </c>
     </row>
     <row r="891">
@@ -12940,7 +12940,7 @@
         <v>2.648248892456211</v>
       </c>
       <c r="D893" t="n">
-        <v>1.726407408714294</v>
+        <v>1.726407289505005</v>
       </c>
     </row>
     <row r="894">
@@ -12982,7 +12982,7 @@
         <v>2.454421108419084</v>
       </c>
       <c r="D896" t="n">
-        <v>1.608973622322083</v>
+        <v>1.608973741531372</v>
       </c>
     </row>
     <row r="897">
@@ -13024,7 +13024,7 @@
         <v>3.003795176509403</v>
       </c>
       <c r="D899" t="n">
-        <v>2.881844997406006</v>
+        <v>2.881844758987427</v>
       </c>
     </row>
     <row r="900">
@@ -13066,7 +13066,7 @@
         <v>2.024365605032834</v>
       </c>
       <c r="D902" t="n">
-        <v>2.002074718475342</v>
+        <v>2.002074480056763</v>
       </c>
     </row>
     <row r="903">
@@ -13094,7 +13094,7 @@
         <v>1.494291942381125</v>
       </c>
       <c r="D904" t="n">
-        <v>1.387143850326538</v>
+        <v>1.38714337348938</v>
       </c>
     </row>
     <row r="905">
@@ -13122,7 +13122,7 @@
         <v>1.184024897230971</v>
       </c>
       <c r="D906" t="n">
-        <v>0.8632906675338745</v>
+        <v>0.8632909059524536</v>
       </c>
     </row>
     <row r="907">
@@ -13192,7 +13192,7 @@
         <v>1.206888355695216</v>
       </c>
       <c r="D911" t="n">
-        <v>0.4616478681564331</v>
+        <v>0.4616475105285645</v>
       </c>
     </row>
     <row r="912">
@@ -13206,7 +13206,7 @@
         <v>1.302416968285911</v>
       </c>
       <c r="D912" t="n">
-        <v>0.5952215194702148</v>
+        <v>0.595221996307373</v>
       </c>
     </row>
     <row r="913">
@@ -13248,7 +13248,7 @@
         <v>1.685317533160181</v>
       </c>
       <c r="D915" t="n">
-        <v>1.270540475845337</v>
+        <v>1.270540714263916</v>
       </c>
     </row>
     <row r="916">
@@ -13360,7 +13360,7 @@
         <v>2.63017540496577</v>
       </c>
       <c r="D923" t="n">
-        <v>1.848837971687317</v>
+        <v>1.848837852478027</v>
       </c>
     </row>
     <row r="924">
@@ -13388,7 +13388,7 @@
         <v>2.631087897299996</v>
       </c>
       <c r="D925" t="n">
-        <v>1.784981369972229</v>
+        <v>1.784981250762939</v>
       </c>
     </row>
     <row r="926">
@@ -13402,7 +13402,7 @@
         <v>2.58471538900092</v>
       </c>
       <c r="D926" t="n">
-        <v>1.747666478157043</v>
+        <v>1.747666716575623</v>
       </c>
     </row>
     <row r="927">
@@ -13444,7 +13444,7 @@
         <v>2.364118011305723</v>
       </c>
       <c r="D929" t="n">
-        <v>1.629059672355652</v>
+        <v>1.629059553146362</v>
       </c>
     </row>
     <row r="930">
@@ -13472,7 +13472,7 @@
         <v>2.869132099434534</v>
       </c>
       <c r="D931" t="n">
-        <v>2.923145771026611</v>
+        <v>2.92314600944519</v>
       </c>
     </row>
     <row r="932">
@@ -13500,7 +13500,7 @@
         <v>2.217592180867846</v>
       </c>
       <c r="D933" t="n">
-        <v>2.354280471801758</v>
+        <v>2.354280233383179</v>
       </c>
     </row>
     <row r="934">
@@ -13514,7 +13514,7 @@
         <v>1.889702527957965</v>
       </c>
       <c r="D934" t="n">
-        <v>2.044528484344482</v>
+        <v>2.044528722763062</v>
       </c>
     </row>
     <row r="935">
@@ -13528,7 +13528,7 @@
         <v>1.599097450766615</v>
       </c>
       <c r="D935" t="n">
-        <v>1.733264088630676</v>
+        <v>1.733263850212097</v>
       </c>
     </row>
     <row r="936">
@@ -13570,7 +13570,7 @@
         <v>1.049361820156102</v>
       </c>
       <c r="D938" t="n">
-        <v>0.9139300584793091</v>
+        <v>0.9139302968978882</v>
       </c>
     </row>
     <row r="939">
@@ -13612,7 +13612,7 @@
         <v>0.9554817572074374</v>
       </c>
       <c r="D941" t="n">
-        <v>0.4786503314971924</v>
+        <v>0.478650689125061</v>
       </c>
     </row>
     <row r="942">
@@ -13626,7 +13626,7 @@
         <v>0.9998107076645018</v>
       </c>
       <c r="D942" t="n">
-        <v>0.4602839946746826</v>
+        <v>0.460283637046814</v>
       </c>
     </row>
     <row r="943">
@@ -13654,7 +13654,7 @@
         <v>1.167753891211042</v>
       </c>
       <c r="D944" t="n">
-        <v>0.651668906211853</v>
+        <v>0.6516686677932739</v>
       </c>
     </row>
     <row r="945">
@@ -13668,7 +13668,7 @@
         <v>1.28199038046658</v>
       </c>
       <c r="D945" t="n">
-        <v>0.8499186038970947</v>
+        <v>0.8499188423156738</v>
       </c>
     </row>
     <row r="946">
@@ -13738,7 +13738,7 @@
         <v>1.993195509145883</v>
       </c>
       <c r="D950" t="n">
-        <v>1.825782418251038</v>
+        <v>1.825782299041748</v>
       </c>
     </row>
     <row r="951">
@@ -13766,7 +13766,7 @@
         <v>2.258108167343087</v>
       </c>
       <c r="D952" t="n">
-        <v>1.931477785110474</v>
+        <v>1.931478023529053</v>
       </c>
     </row>
     <row r="953">
@@ -13794,7 +13794,7 @@
         <v>2.445005898980721</v>
       </c>
       <c r="D954" t="n">
-        <v>1.930219769477844</v>
+        <v>1.930219888687134</v>
       </c>
     </row>
     <row r="955">
@@ -13864,7 +13864,7 @@
         <v>2.381391225680006</v>
       </c>
       <c r="D959" t="n">
-        <v>1.767795920372009</v>
+        <v>1.767796039581299</v>
       </c>
     </row>
     <row r="960">
@@ -13934,7 +13934,7 @@
         <v>2.369015057848637</v>
       </c>
       <c r="D964" t="n">
-        <v>2.688238620758057</v>
+        <v>2.688238382339478</v>
       </c>
     </row>
     <row r="965">
@@ -13976,7 +13976,7 @@
         <v>1.410802872990701</v>
       </c>
       <c r="D967" t="n">
-        <v>1.774434685707092</v>
+        <v>1.774434804916382</v>
       </c>
     </row>
     <row r="968">
@@ -13990,7 +13990,7 @@
         <v>1.171334287530342</v>
       </c>
       <c r="D968" t="n">
-        <v>1.476686358451843</v>
+        <v>1.476686477661133</v>
       </c>
     </row>
     <row r="969">
@@ -14018,7 +14018,7 @@
         <v>0.8610672423801877</v>
       </c>
       <c r="D970" t="n">
-        <v>0.9620493650436401</v>
+        <v>0.9620496034622192</v>
       </c>
     </row>
     <row r="971">
@@ -14074,7 +14074,7 @@
         <v>0.8115161298885878</v>
       </c>
       <c r="D974" t="n">
-        <v>0.5139763355255127</v>
+        <v>0.5139766931533813</v>
       </c>
     </row>
     <row r="975">
@@ -14088,7 +14088,7 @@
         <v>0.8839307008444326</v>
       </c>
       <c r="D975" t="n">
-        <v>0.5720450878143311</v>
+        <v>0.5720452070236206</v>
       </c>
     </row>
     <row r="976">
@@ -14102,7 +14102,7 @@
         <v>0.9794593134351275</v>
       </c>
       <c r="D976" t="n">
-        <v>0.7061458826065063</v>
+        <v>0.7061457633972168</v>
       </c>
     </row>
     <row r="977">
@@ -14116,7 +14116,7 @@
         <v>1.093695802690666</v>
       </c>
       <c r="D977" t="n">
-        <v>0.9047055244445801</v>
+        <v>0.9047050476074219</v>
       </c>
     </row>
     <row r="978">
@@ -14256,7 +14256,7 @@
         <v>2.307217750114987</v>
       </c>
       <c r="D987" t="n">
-        <v>1.968021392822266</v>
+        <v>1.968021512031555</v>
       </c>
     </row>
     <row r="988">
@@ -14284,7 +14284,7 @@
         <v>2.308130242449213</v>
       </c>
       <c r="D989" t="n">
-        <v>1.903287410736084</v>
+        <v>1.903287529945374</v>
       </c>
     </row>
     <row r="990">
@@ -14312,7 +14312,7 @@
         <v>2.193096647904091</v>
       </c>
       <c r="D991" t="n">
-        <v>1.826271414756775</v>
+        <v>1.826271295547485</v>
       </c>
     </row>
     <row r="992">
@@ -14340,7 +14340,7 @@
         <v>2.04116035645494</v>
       </c>
       <c r="D993" t="n">
-        <v>1.746744275093079</v>
+        <v>1.746744155883789</v>
       </c>
     </row>
     <row r="994">
@@ -14368,7 +14368,7 @@
         <v>2.525237116956554</v>
       </c>
       <c r="D995" t="n">
-        <v>2.995088577270508</v>
+        <v>2.995088338851929</v>
       </c>
     </row>
     <row r="996">
@@ -14396,7 +14396,7 @@
         <v>1.873697198389866</v>
       </c>
       <c r="D997" t="n">
-        <v>2.427064895629883</v>
+        <v>2.427065134048462</v>
       </c>
     </row>
     <row r="998">
@@ -14424,7 +14424,7 @@
         <v>1.255202468288634</v>
       </c>
       <c r="D999" t="n">
-        <v>1.812082648277283</v>
+        <v>1.812082767486572</v>
       </c>
     </row>
     <row r="1000">
@@ -14466,7 +14466,7 @@
         <v>0.7054668376781217</v>
       </c>
       <c r="D1002" t="n">
-        <v>1.006983280181885</v>
+        <v>1.006983160972595</v>
       </c>
     </row>
     <row r="1003">
@@ -14508,7 +14508,7 @@
         <v>0.611586774729457</v>
       </c>
       <c r="D1005" t="n">
-        <v>0.5815318822860718</v>
+        <v>0.5815314054489136</v>
       </c>
     </row>
     <row r="1006">
@@ -14522,7 +14522,7 @@
         <v>0.6559157251865215</v>
       </c>
       <c r="D1006" t="n">
-        <v>0.5647698640823364</v>
+        <v>0.5647696256637573</v>
       </c>
     </row>
     <row r="1007">
@@ -14620,7 +14620,7 @@
         <v>1.502456250140924</v>
       </c>
       <c r="D1013" t="n">
-        <v>1.821798205375671</v>
+        <v>1.821798324584961</v>
       </c>
     </row>
     <row r="1014">
@@ -14732,7 +14732,7 @@
         <v>2.152529837747147</v>
       </c>
       <c r="D1021" t="n">
-        <v>1.961949110031128</v>
+        <v>1.961949229240417</v>
       </c>
     </row>
     <row r="1022">
@@ -14774,7 +14774,7 @@
         <v>1.95870205371002</v>
       </c>
       <c r="D1024" t="n">
-        <v>1.843812108039856</v>
+        <v>1.843811869621277</v>
       </c>
     </row>
     <row r="1025">
